--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Auto</t>
   </si>
@@ -875,6 +875,7 @@
         <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>|30</t>
     </r>
@@ -889,6 +890,7 @@
         <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>|60</t>
     </r>
@@ -969,36 +971,6 @@
         <charset val="1"/>
       </rPr>
       <t>|36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
     </r>
   </si>
   <si>
@@ -1090,7 +1062,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1132,17 +1104,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFDDDDDD"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1248,7 +1209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1349,11 +1310,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1441,7 +1398,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1694,26 +1651,26 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>85</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8" t="n">
         <v>65</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="8" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2</v>
@@ -1722,16 +1679,16 @@
         <v>2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>26</v>
@@ -1955,7 +1912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2280,7 +2237,7 @@
       <c r="F19" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -2326,13 +2283,13 @@
         <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="4" t="n">
@@ -2359,28 +2316,28 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="F21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="12" t="n">
@@ -2402,12 +2359,12 @@
         <v>65</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="22" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2422,7 +2379,7 @@
       <c r="H22" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="12" t="n">
         <v>4</v>
       </c>
@@ -2442,7 +2399,7 @@
         <v>80</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -435,7 +435,7 @@
   </si>
   <si>
     <r>
-      <t>66</t>
+      <t>62</t>
     </r>
     <r>
       <rPr>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <r>
-      <t>72</t>
+      <t>80</t>
     </r>
     <r>
       <rPr>
@@ -465,105 +465,276 @@
   </si>
   <si>
     <r>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|42</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_ROCKET_LAUNCHER</t>
+  </si>
+  <si>
+    <r>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|90</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>68</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>40</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|42</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_ROCKET_LAUNCHER</t>
-  </si>
-  <si>
-    <r>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|115</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -573,24 +744,6 @@
   </si>
   <si>
     <r>
-      <t>125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|90</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_PISTOL</t>
-  </si>
-  <si>
-    <r>
       <t>0</t>
     </r>
     <r>
@@ -601,22 +754,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|40</t>
+      <t>|34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
     </r>
   </si>
   <si>
@@ -631,165 +784,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|68</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>|50</t>
     </r>
   </si>
   <si>
     <r>
-      <t>55</t>
+      <t>56</t>
     </r>
     <r>
       <rPr>
@@ -1398,7 +1398,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>5</v>
@@ -1576,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J4" s="9" t="n">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="I5" s="13" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J5" s="12" t="n">
         <v>3</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="8" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2</v>
@@ -1706,7 +1706,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="17" t="n">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>28</v>
@@ -1953,10 +1953,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I13" s="22" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4" t="n">
         <v>3</v>
@@ -2374,7 +2374,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H22" s="12" t="n">
         <v>120</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>Auto</t>
   </si>
@@ -150,6 +150,132 @@
   </si>
   <si>
     <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_SNIPER_RIFLE</t>
+  </si>
+  <si>
+    <t>STR_ALLOY_RIFLE</t>
+  </si>
+  <si>
+    <t>STR_ALLOY_SNIPER_RIFLE</t>
+  </si>
+  <si>
+    <t>STR_SHOTGUN</t>
+  </si>
+  <si>
+    <t>28X5</t>
+  </si>
+  <si>
+    <t>42x6</t>
+  </si>
+  <si>
+    <t>STR_HEAVY_CANNON</t>
+  </si>
+  <si>
+    <r>
+      <t>90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|33</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>85</t>
     </r>
     <r>
@@ -160,27 +286,357 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|110</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|35</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>25</t>
+      <t>|80</t>
+    </r>
+  </si>
+  <si>
+    <t>52x5</t>
+  </si>
+  <si>
+    <t>STR_AUTO_CANNON</t>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|40</t>
+    </r>
+  </si>
+  <si>
+    <t>40x4</t>
+  </si>
+  <si>
+    <t>STR_HEAVY_LASER</t>
+  </si>
+  <si>
+    <r>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|75</t>
+    </r>
+  </si>
+  <si>
+    <t>70X3</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>STR_GRENADE_LAUNCHER</t>
+  </si>
+  <si>
+    <r>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|42</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_ROCKET_LAUNCHER</t>
+  </si>
+  <si>
+    <r>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|90</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -195,27 +651,213 @@
   </si>
   <si>
     <r>
-      <t>70</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_PLASMA_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -224,176 +866,8 @@
     </r>
   </si>
   <si>
-    <t>STR_SNIPER_RIFLE</t>
-  </si>
-  <si>
-    <t>STR_ALLOY_RIFLE</t>
-  </si>
-  <si>
-    <t>STR_ALLOY_SNIPER_RIFLE</t>
-  </si>
-  <si>
-    <t>STR_SHOTGUN</t>
-  </si>
-  <si>
-    <t>22X5</t>
-  </si>
-  <si>
-    <t>36x5</t>
-  </si>
-  <si>
-    <t>STR_HEAVY_CANNON</t>
-  </si>
-  <si>
-    <r>
-      <t>90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|90</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|80</t>
-    </r>
-  </si>
-  <si>
-    <t>56x3</t>
-  </si>
-  <si>
-    <t>STR_AUTO_CANNON</t>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|32</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|56</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|82</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|40</t>
-    </r>
-  </si>
-  <si>
-    <t>22x3</t>
-  </si>
-  <si>
-    <t>STR_HEAVY_LASER</t>
-  </si>
-  <si>
-    <r>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
+    <r>
+      <t>30</t>
     </r>
     <r>
       <rPr>
@@ -403,12 +877,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
     </r>
     <r>
       <rPr>
@@ -418,29 +892,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|75</t>
-    </r>
-  </si>
-  <si>
-    <t>65X3</t>
-  </si>
-  <si>
-    <t>HE</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>STR_GRENADE_LAUNCHER</t>
-  </si>
-  <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -449,484 +911,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|42</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_ROCKET_LAUNCHER</t>
-  </si>
-  <si>
-    <r>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|115</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|90</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_PISTOL</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|68</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>33</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>68</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>56</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_PLASMA_PISTOL</t>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|52</t>
-    </r>
-  </si>
-  <si>
     <t>STR_PLASMA_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1398,7 +1383,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1657,7 +1642,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>25</v>
@@ -1666,7 +1651,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="8" t="n">
@@ -2271,16 +2256,16 @@
         <v>86</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>83</v>
@@ -2289,7 +2274,7 @@
         <v>84</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="4" t="n">
@@ -2316,19 +2301,19 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>83</v>
@@ -2337,7 +2322,7 @@
         <v>84</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="12" t="n">
@@ -2359,12 +2344,12 @@
         <v>65</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2399,7 +2384,7 @@
         <v>80</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -363,52 +363,481 @@
   </si>
   <si>
     <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|33</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|75</t>
+    </r>
+  </si>
+  <si>
+    <t>70X3</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>STR_GRENADE_LAUNCHER</t>
+  </si>
+  <si>
+    <r>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|42</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_ROCKET_LAUNCHER</t>
+  </si>
+  <si>
+    <r>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|115</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFEEEEEE"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|90</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|55</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_PLASMA_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>65</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|33</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
     </r>
     <r>
       <rPr>
@@ -418,29 +847,62 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|75</t>
-    </r>
-  </si>
-  <si>
-    <t>70X3</t>
-  </si>
-  <si>
-    <t>HE</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>STR_GRENADE_LAUNCHER</t>
-  </si>
-  <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
+      <t>|85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -449,527 +911,65 @@
     </r>
   </si>
   <si>
+    <t>STR_PLASMA_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>93</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|36</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>80</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>42</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|44</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|42</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_ROCKET_LAUNCHER</t>
-  </si>
-  <si>
-    <r>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|115</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|45</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>75</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|75</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFEEEEEE"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|90</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_PISTOL</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|68</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FFDDDDDD"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|55</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|34</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_PLASMA_PISTOL</t>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>85</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|52</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_PLASMA_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>73</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|86</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>93</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t>|80</t>
     </r>
   </si>
@@ -978,7 +978,7 @@
   </si>
   <si>
     <r>
-      <t>67</t>
+      <t>69</t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1642,7 +1642,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>25</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -261,7 +261,7 @@
   </si>
   <si>
     <r>
-      <t>35</t>
+      <t>33</t>
     </r>
     <r>
       <rPr>
@@ -276,7 +276,7 @@
   </si>
   <si>
     <r>
-      <t>85</t>
+      <t>80</t>
     </r>
     <r>
       <rPr>
@@ -393,7 +393,7 @@
   </si>
   <si>
     <r>
-      <t>50</t>
+      <t>34</t>
     </r>
     <r>
       <rPr>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1686,7 +1686,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="17" t="n">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8" t="n">
         <v>66</v>
@@ -2354,7 +2354,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="17" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="17" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" s="12" t="n">
         <v>5</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1686,12 +1686,12 @@
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="17" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="17" t="n">
@@ -2359,10 +2359,10 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="12" t="n">

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1194,7 +1194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1297,10 +1297,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1379,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2361,10 +2357,10 @@
       <c r="G22" s="17" t="n">
         <v>99</v>
       </c>
-      <c r="H22" s="12" t="n">
-        <v>140</v>
-      </c>
-      <c r="I22" s="26"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17" t="n">
+        <v>125</v>
+      </c>
       <c r="J22" s="12" t="n">
         <v>4</v>
       </c>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1378,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9" t="n">
         <v>20</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="13" t="n">
         <v>80</v>
@@ -1687,7 +1687,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="17" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="17" t="n">
@@ -2232,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P19" s="10" t="s">
         <v>78</v>
@@ -2280,16 +2280,16 @@
         <v>2</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N20" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="O20" s="4" t="n">
         <v>50</v>
-      </c>
-      <c r="O20" s="4" t="n">
-        <v>65</v>
       </c>
       <c r="P20" s="10" t="s">
         <v>86</v>
@@ -2328,16 +2328,16 @@
         <v>3</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M21" s="12" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N21" s="12" t="n">
+        <v>40</v>
+      </c>
+      <c r="O21" s="12" t="n">
         <v>50</v>
-      </c>
-      <c r="O21" s="12" t="n">
-        <v>65</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>91</v>
@@ -2355,7 +2355,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17" t="n">
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O22" s="12" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>96</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1378,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2355,7 +2355,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="17" t="n">

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -422,7 +422,19 @@
     </r>
   </si>
   <si>
-    <t>70X3</t>
+    <r>
+      <t>68X3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|85</t>
+    </r>
   </si>
   <si>
     <t>HE</t>
@@ -1378,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1881,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N11" s="12" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>42</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -1390,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1473,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>5</v>
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>5</v>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -423,7 +423,7 @@
   </si>
   <si>
     <r>
-      <t>68X3</t>
+      <t>64X3</t>
     </r>
     <r>
       <rPr>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -363,7 +363,7 @@
   </si>
   <si>
     <r>
-      <t>75</t>
+      <t>68</t>
     </r>
     <r>
       <rPr>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -393,7 +393,7 @@
   </si>
   <si>
     <r>
-      <t>34</t>
+      <t>35</t>
     </r>
     <r>
       <rPr>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -423,7 +423,7 @@
   </si>
   <si>
     <r>
-      <t>64X3</t>
+      <t>60X3</t>
     </r>
     <r>
       <rPr>
@@ -1390,8 +1390,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Descriptions/Shooting.xlsx
+++ b/Descriptions/Shooting.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>Auto</t>
   </si>
@@ -230,9 +230,15 @@
     <t>STR_ALLOY_RIFLE</t>
   </si>
   <si>
+    <t>52/50</t>
+  </si>
+  <si>
     <t>STR_ALLOY_SNIPER_RIFLE</t>
   </si>
   <si>
+    <t>88/84</t>
+  </si>
+  <si>
     <t>STR_SHOTGUN</t>
   </si>
   <si>
@@ -693,6 +699,222 @@
   </si>
   <si>
     <r>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_LASER_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|34</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_PLASMA_PISTOL</t>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|65</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>|60</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>48</t>
     </r>
     <r>
@@ -703,45 +925,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_LASER_RIFLE</t>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|46</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
+      <t>|52</t>
+    </r>
+  </si>
+  <si>
+    <t>STR_PLASMA_RIFLE</t>
+  </si>
+  <si>
+    <r>
+      <t>70</t>
     </r>
     <r>
       <rPr>
@@ -751,26 +943,26 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t>|86</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDDDDDD"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>|100</t>
     </r>
   </si>
   <si>
     <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|34</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>40</t>
     </r>
     <r>
@@ -781,198 +973,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>|25</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_PLASMA_PISTOL</t>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|50</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>65</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|65</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|85</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|52</t>
-    </r>
-  </si>
-  <si>
-    <t>STR_PLASMA_RIFLE</t>
+      <t>|36</t>
+    </r>
   </si>
   <si>
     <r>
       <t>74</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|86</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>93</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|100</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDDDDDD"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>|36</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>80</t>
     </r>
     <r>
       <rPr>
@@ -1390,8 +1396,8 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1662,8 +1668,8 @@
         <v>80</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="8" t="n">
-        <v>52</v>
+      <c r="I6" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="7" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1702,8 +1708,8 @@
         <v>99</v>
       </c>
       <c r="H7" s="12"/>
-      <c r="I7" s="17" t="n">
-        <v>88</v>
+      <c r="I7" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="J7" s="12" t="n">
         <v>5</v>
@@ -1724,12 +1730,12 @@
         <v>62</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="n">
@@ -1742,10 +1748,10 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>4</v>
@@ -1766,30 +1772,30 @@
         <v>18</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>3</v>
@@ -1810,34 +1816,34 @@
         <v>28</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10" s="9" t="n">
         <v>3</v>
@@ -1858,29 +1864,29 @@
         <v>24</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="12" t="n">
@@ -1902,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,10 +1920,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="17"/>
       <c r="H12" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1929,7 +1935,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="n">
@@ -1970,32 +1976,32 @@
         <v>38</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14" s="4" t="n">
         <v>3</v>
@@ -2016,36 +2022,36 @@
         <v>28</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="9" t="n">
         <v>3</v>
@@ -2066,32 +2072,32 @@
         <v>24</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J16" s="12" t="n">
         <v>5</v>
@@ -2112,33 +2118,33 @@
         <v>75</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="4" t="n">
@@ -2160,33 +2166,33 @@
         <v>35</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="12" t="n">
@@ -2199,42 +2205,42 @@
         <v>0</v>
       </c>
       <c r="M18" s="12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" s="12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O18" s="12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="4" t="n">
@@ -2253,36 +2259,36 @@
         <v>25</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="4" t="n">
@@ -2298,39 +2304,39 @@
         <v>26</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="12" t="n">
@@ -2343,7 +2349,7 @@
         <v>18</v>
       </c>
       <c r="M21" s="12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21" s="12" t="n">
         <v>40</v>
@@ -2352,12 +2358,12 @@
         <v>50</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2392,7 +2398,7 @@
         <v>72</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
